--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H2">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I2">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J2">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N2">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O2">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P2">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q2">
-        <v>812.8307845426845</v>
+        <v>7.736532504567222</v>
       </c>
       <c r="R2">
-        <v>812.8307845426845</v>
+        <v>69.628792541105</v>
       </c>
       <c r="S2">
-        <v>0.152390902154288</v>
+        <v>0.00128538112938039</v>
       </c>
       <c r="T2">
-        <v>0.152390902154288</v>
+        <v>0.00128538112938039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H3">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I3">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J3">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N3">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O3">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P3">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q3">
-        <v>597.9648646575016</v>
+        <v>5.655391710095556</v>
       </c>
       <c r="R3">
-        <v>597.9648646575016</v>
+        <v>50.89852539085999</v>
       </c>
       <c r="S3">
-        <v>0.1121074729385304</v>
+        <v>0.0009396113541977245</v>
       </c>
       <c r="T3">
-        <v>0.1121074729385304</v>
+        <v>0.0009396113541977245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H4">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I4">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J4">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N4">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O4">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P4">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q4">
-        <v>191.0362059651426</v>
+        <v>1.884686447089445</v>
       </c>
       <c r="R4">
-        <v>191.0362059651426</v>
+        <v>16.962178023805</v>
       </c>
       <c r="S4">
-        <v>0.03581579379715493</v>
+        <v>0.0003131299962169888</v>
       </c>
       <c r="T4">
-        <v>0.03581579379715493</v>
+        <v>0.0003131299962169888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H5">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I5">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J5">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N5">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O5">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P5">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q5">
-        <v>380.0173122867507</v>
+        <v>3.566305976352778</v>
       </c>
       <c r="R5">
-        <v>380.0173122867507</v>
+        <v>32.096753787175</v>
       </c>
       <c r="S5">
-        <v>0.07124629400719336</v>
+        <v>0.0005925215722798541</v>
       </c>
       <c r="T5">
-        <v>0.07124629400719336</v>
+        <v>0.0005925215722798541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H6">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I6">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J6">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N6">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O6">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P6">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q6">
-        <v>101.8938990829564</v>
+        <v>0.9971869244944443</v>
       </c>
       <c r="R6">
-        <v>101.8938990829564</v>
+        <v>8.974682320449999</v>
       </c>
       <c r="S6">
-        <v>0.01910324202842036</v>
+        <v>0.0001656769689073681</v>
       </c>
       <c r="T6">
-        <v>0.01910324202842036</v>
+        <v>0.0001656769689073681</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>34.3290146878787</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H7">
-        <v>34.3290146878787</v>
+        <v>2.496115</v>
       </c>
       <c r="I7">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="J7">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N7">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O7">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P7">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q7">
-        <v>1267.80986442037</v>
+        <v>31.44057835226722</v>
       </c>
       <c r="R7">
-        <v>1267.80986442037</v>
+        <v>282.965205170405</v>
       </c>
       <c r="S7">
-        <v>0.23769115623226</v>
+        <v>0.005223674312355335</v>
       </c>
       <c r="T7">
-        <v>0.23769115623226</v>
+        <v>0.005223674312355336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>34.3290146878787</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H8">
-        <v>34.3290146878787</v>
+        <v>2.496115</v>
       </c>
       <c r="I8">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="J8">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N8">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O8">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P8">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q8">
-        <v>932.6735261584585</v>
+        <v>22.98300770649556</v>
       </c>
       <c r="R8">
-        <v>932.6735261584585</v>
+        <v>206.84706935846</v>
       </c>
       <c r="S8">
-        <v>0.1748592238010206</v>
+        <v>0.00381849677292683</v>
       </c>
       <c r="T8">
-        <v>0.1748592238010206</v>
+        <v>0.003818496772926831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>34.3290146878787</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H9">
-        <v>34.3290146878787</v>
+        <v>2.496115</v>
       </c>
       <c r="I9">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="J9">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N9">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O9">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P9">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q9">
-        <v>297.9680285120041</v>
+        <v>7.659197692789445</v>
       </c>
       <c r="R9">
-        <v>297.9680285120041</v>
+        <v>68.932779235105</v>
       </c>
       <c r="S9">
-        <v>0.05586355431115491</v>
+        <v>0.00127253238769351</v>
       </c>
       <c r="T9">
-        <v>0.05586355431115491</v>
+        <v>0.00127253238769351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>34.3290146878787</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H10">
-        <v>34.3290146878787</v>
+        <v>2.496115</v>
       </c>
       <c r="I10">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="J10">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N10">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O10">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P10">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q10">
-        <v>592.7306228180365</v>
+        <v>14.49314953585278</v>
       </c>
       <c r="R10">
-        <v>592.7306228180365</v>
+        <v>130.438345822675</v>
       </c>
       <c r="S10">
-        <v>0.1111261483489867</v>
+        <v>0.002407954843810926</v>
       </c>
       <c r="T10">
-        <v>0.1111261483489867</v>
+        <v>0.002407954843810926</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>34.3290146878787</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H11">
-        <v>34.3290146878787</v>
+        <v>2.496115</v>
       </c>
       <c r="I11">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="J11">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N11">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O11">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P11">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q11">
-        <v>158.9286390700695</v>
+        <v>4.052478757494444</v>
       </c>
       <c r="R11">
-        <v>158.9286390700695</v>
+        <v>36.47230881745</v>
       </c>
       <c r="S11">
-        <v>0.0297962123809907</v>
+        <v>0.0006732964308006403</v>
       </c>
       <c r="T11">
-        <v>0.0297962123809907</v>
+        <v>0.0006732964308006404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H12">
+        <v>67.953287</v>
+      </c>
+      <c r="I12">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J12">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>37.78741566666667</v>
+      </c>
+      <c r="N12">
+        <v>113.362247</v>
+      </c>
+      <c r="O12">
+        <v>0.3899441593213934</v>
+      </c>
+      <c r="P12">
+        <v>0.3899441593213934</v>
+      </c>
+      <c r="Q12">
+        <v>855.9263672617654</v>
+      </c>
+      <c r="R12">
+        <v>7703.337305355889</v>
+      </c>
+      <c r="S12">
+        <v>0.1422073260815346</v>
+      </c>
+      <c r="T12">
+        <v>0.1422073260815346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H13">
+        <v>67.953287</v>
+      </c>
+      <c r="I13">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J13">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>27.62253466666667</v>
+      </c>
+      <c r="N13">
+        <v>82.867604</v>
+      </c>
+      <c r="O13">
+        <v>0.2850484974663402</v>
+      </c>
+      <c r="P13">
+        <v>0.2850484974663403</v>
+      </c>
+      <c r="Q13">
+        <v>625.6806752904831</v>
+      </c>
+      <c r="R13">
+        <v>5631.126077614348</v>
+      </c>
+      <c r="S13">
+        <v>0.1039533062856762</v>
+      </c>
+      <c r="T13">
+        <v>0.1039533062856762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H14">
+        <v>67.953287</v>
+      </c>
+      <c r="I14">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J14">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.205342333333334</v>
+      </c>
+      <c r="N14">
+        <v>27.616027</v>
+      </c>
+      <c r="O14">
+        <v>0.09499378071000923</v>
+      </c>
+      <c r="P14">
+        <v>0.09499378071000925</v>
+      </c>
+      <c r="Q14">
+        <v>208.5110898367499</v>
+      </c>
+      <c r="R14">
+        <v>1876.599808530749</v>
+      </c>
+      <c r="S14">
+        <v>0.034642938549599</v>
+      </c>
+      <c r="T14">
+        <v>0.03464293854959901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H15">
+        <v>67.953287</v>
+      </c>
+      <c r="I15">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J15">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.41884833333333</v>
+      </c>
+      <c r="N15">
+        <v>52.256545</v>
+      </c>
+      <c r="O15">
+        <v>0.1797523871334833</v>
+      </c>
+      <c r="P15">
+        <v>0.1797523871334834</v>
+      </c>
+      <c r="Q15">
+        <v>394.5560000014905</v>
+      </c>
+      <c r="R15">
+        <v>3551.004000013415</v>
+      </c>
+      <c r="S15">
+        <v>0.06555324838179492</v>
+      </c>
+      <c r="T15">
+        <v>0.06555324838179494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H16">
+        <v>67.953287</v>
+      </c>
+      <c r="I16">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J16">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.870543333333333</v>
+      </c>
+      <c r="N16">
+        <v>14.61163</v>
+      </c>
+      <c r="O16">
+        <v>0.05026117536877379</v>
+      </c>
+      <c r="P16">
+        <v>0.0502611753687738</v>
+      </c>
+      <c r="Q16">
+        <v>110.3231429919789</v>
+      </c>
+      <c r="R16">
+        <v>992.9082869278101</v>
+      </c>
+      <c r="S16">
+        <v>0.01832956638547164</v>
+      </c>
+      <c r="T16">
+        <v>0.01832956638547164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.423291</v>
+      </c>
+      <c r="H17">
+        <v>115.269873</v>
+      </c>
+      <c r="I17">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J17">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>37.78741566666667</v>
+      </c>
+      <c r="N17">
+        <v>113.362247</v>
+      </c>
+      <c r="O17">
+        <v>0.3899441593213934</v>
+      </c>
+      <c r="P17">
+        <v>0.3899441593213934</v>
+      </c>
+      <c r="Q17">
+        <v>1451.916868298292</v>
+      </c>
+      <c r="R17">
+        <v>13067.25181468463</v>
+      </c>
+      <c r="S17">
+        <v>0.241227777798123</v>
+      </c>
+      <c r="T17">
+        <v>0.2412277777981231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>38.423291</v>
+      </c>
+      <c r="H18">
+        <v>115.269873</v>
+      </c>
+      <c r="I18">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J18">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>27.62253466666667</v>
+      </c>
+      <c r="N18">
+        <v>82.867604</v>
+      </c>
+      <c r="O18">
+        <v>0.2850484974663402</v>
+      </c>
+      <c r="P18">
+        <v>0.2850484974663403</v>
+      </c>
+      <c r="Q18">
+        <v>1061.348687654921</v>
+      </c>
+      <c r="R18">
+        <v>9552.138188894292</v>
+      </c>
+      <c r="S18">
+        <v>0.1763370830535394</v>
+      </c>
+      <c r="T18">
+        <v>0.1763370830535395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>38.423291</v>
+      </c>
+      <c r="H19">
+        <v>115.269873</v>
+      </c>
+      <c r="I19">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J19">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.205342333333334</v>
+      </c>
+      <c r="N19">
+        <v>27.616027</v>
+      </c>
+      <c r="O19">
+        <v>0.09499378071000923</v>
+      </c>
+      <c r="P19">
+        <v>0.09499378071000925</v>
+      </c>
+      <c r="Q19">
+        <v>353.6995472282857</v>
+      </c>
+      <c r="R19">
+        <v>3183.295925054571</v>
+      </c>
+      <c r="S19">
+        <v>0.05876517977649972</v>
+      </c>
+      <c r="T19">
+        <v>0.05876517977649974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>38.423291</v>
+      </c>
+      <c r="H20">
+        <v>115.269873</v>
+      </c>
+      <c r="I20">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J20">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.41884833333333</v>
+      </c>
+      <c r="N20">
+        <v>52.256545</v>
+      </c>
+      <c r="O20">
+        <v>0.1797523871334833</v>
+      </c>
+      <c r="P20">
+        <v>0.1797523871334834</v>
+      </c>
+      <c r="Q20">
+        <v>669.2894783965316</v>
+      </c>
+      <c r="R20">
+        <v>6023.605305568785</v>
+      </c>
+      <c r="S20">
+        <v>0.1111986623355976</v>
+      </c>
+      <c r="T20">
+        <v>0.1111986623355977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>38.423291</v>
+      </c>
+      <c r="H21">
+        <v>115.269873</v>
+      </c>
+      <c r="I21">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J21">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.870543333333333</v>
+      </c>
+      <c r="N21">
+        <v>14.61163</v>
+      </c>
+      <c r="O21">
+        <v>0.05026117536877379</v>
+      </c>
+      <c r="P21">
+        <v>0.0502611753687738</v>
+      </c>
+      <c r="Q21">
+        <v>187.1423038247767</v>
+      </c>
+      <c r="R21">
+        <v>1684.28073442299</v>
+      </c>
+      <c r="S21">
+        <v>0.03109263558359414</v>
+      </c>
+      <c r="T21">
+        <v>0.03109263558359415</v>
       </c>
     </row>
   </sheetData>
